--- a/SportsInviter/Data/Input/VenueDetails.xlsx
+++ b/SportsInviter/Data/Input/VenueDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1A526-13D3-4F90-90AB-9B91B4996B45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E48ED-2E35-4807-94E9-1D4DE87FD68A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SportsInviter/Data/Input/VenueDetails.xlsx
+++ b/SportsInviter/Data/Input/VenueDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E48ED-2E35-4807-94E9-1D4DE87FD68A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF674F-E973-49B7-9401-A88C8F5185D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SportsInviter/Data/Input/VenueDetails.xlsx
+++ b/SportsInviter/Data/Input/VenueDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF674F-E973-49B7-9401-A88C8F5185D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33306-7093-46BB-A0E2-B56606B020DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
